--- a/public/legend/exactly.xlsx
+++ b/public/legend/exactly.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +543,7 @@
   <dimension ref="B3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
